--- a/Logs/Teine nädal.xlsx
+++ b/Logs/Teine nädal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CF315-5D88-44FE-9D79-170A646F369A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F558569C-968D-4AF8-9E2D-7F8551EC1579}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="19176" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 2" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Student:</t>
   </si>
   <si>
-    <t>Gunnar Piho</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Raamat</t>
+  </si>
+  <si>
+    <t>Marko Jõgi</t>
   </si>
 </sst>
 </file>
@@ -471,6 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -528,7 +529,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +846,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,91 +864,91 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="38">
+        <v>43494</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="37">
-        <v>42764</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>59.999999999999943</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -997,7 +997,7 @@
         <v>54.999999999999801</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1024,7 +1024,7 @@
         <v>55.000000000000043</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1053,7 +1053,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1080,7 +1080,7 @@
         <v>60.000000000000107</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1109,10 +1109,10 @@
         <v>89.999999999999929</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10">
@@ -1140,7 +1140,7 @@
         <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1170,7 +1170,7 @@
         <v>275.00000000000023</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1190,12 +1190,12 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="44">
+      <c r="F15" s="25">
         <f>(D15-C15)*24*60 - E15</f>
         <v>30.000000000000053</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1220,7 +1220,7 @@
         <v>59.999999999999943</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="6"/>
@@ -1245,22 +1245,22 @@
         <v>60.000000000000028</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="24">
         <f>(SUM(F7:F17)) / 60</f>
         <v>16.5</v>
